--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="22040" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="11220" yWindow="460" windowWidth="27160" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Internal ID</t>
   </si>
@@ -47,15 +47,6 @@
     <t>Check max length for password field (40 char)</t>
   </si>
   <si>
-    <t>Sign in with new password after change password</t>
-  </si>
-  <si>
-    <t>Check UI for user has permission after sign in successfully</t>
-  </si>
-  <si>
-    <t>Check UI for user has no permission after sign in successfully</t>
-  </si>
-  <si>
     <t>Sign in with valid email and password</t>
   </si>
   <si>
@@ -68,21 +59,12 @@
     <t>Sign in with new password after reset password</t>
   </si>
   <si>
-    <t>Sign in after changing email</t>
-  </si>
-  <si>
     <t>Sign in with old password after reset password</t>
   </si>
   <si>
     <t>Disable "Sign In" button when missing all fields (default)</t>
   </si>
   <si>
-    <t>Sign in with empty Password</t>
-  </si>
-  <si>
-    <t>Sign in with empty Email</t>
-  </si>
-  <si>
     <t>Sign in with a wrong password and show message</t>
   </si>
   <si>
@@ -92,24 +74,9 @@
     <t>Sign in with non existent email</t>
   </si>
   <si>
-    <t>Sign in with old password after change password</t>
-  </si>
-  <si>
-    <t>Sign in with old email after change email</t>
-  </si>
-  <si>
-    <t>Sign in without network</t>
-  </si>
-  <si>
     <t>Sign in with an invalid format email</t>
   </si>
   <si>
-    <t>Sign in with email has invated but not verify email</t>
-  </si>
-  <si>
-    <t>Sign in with new email after change but not verify</t>
-  </si>
-  <si>
     <t>Email Address</t>
   </si>
   <si>
@@ -117,13 +84,88 @@
   </si>
   <si>
     <t>Error message</t>
+  </si>
+  <si>
+    <t>56016</t>
+  </si>
+  <si>
+    <t>55914</t>
+  </si>
+  <si>
+    <t>55916</t>
+  </si>
+  <si>
+    <t>56166</t>
+  </si>
+  <si>
+    <t>56973</t>
+  </si>
+  <si>
+    <t>55936</t>
+  </si>
+  <si>
+    <t>55938</t>
+  </si>
+  <si>
+    <t>55940</t>
+  </si>
+  <si>
+    <t>55942</t>
+  </si>
+  <si>
+    <t>57279</t>
+  </si>
+  <si>
+    <t>57256</t>
+  </si>
+  <si>
+    <t>55970</t>
+  </si>
+  <si>
+    <t>55974</t>
+  </si>
+  <si>
+    <t>55976</t>
+  </si>
+  <si>
+    <t>55982</t>
+  </si>
+  <si>
+    <t>sc-qa01@yopmail.com</t>
+  </si>
+  <si>
+    <t>112345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678902345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345</t>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901</t>
+  </si>
+  <si>
+    <t>Number of characters allowed</t>
+  </si>
+  <si>
+    <t>SC-QA01@YOPMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SC-QA01@YOPMAIL.COM</t>
+  </si>
+  <si>
+    <t>sc-qa010101@yopmail.com</t>
+  </si>
+  <si>
+    <t>this_is_an_invalid_email@format</t>
+  </si>
+  <si>
+    <t>The email address or password you entered is incorrect. Please try again.</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +183,26 @@
       <sz val="13.2"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,16 +228,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,11 +532,11 @@
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="64.1640625" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="64.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,229 +544,234 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>56016</v>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>55914</v>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>55916</v>
+      <c r="C3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>56166</v>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>56973</v>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>57276</v>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>55922</v>
+      <c r="C7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>55924</v>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>55936</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>55938</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>55940</v>
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>55942</v>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>55946</v>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1234567890</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>57279</v>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>12345678</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>57256</v>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1234567890</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>55956</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>55954</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>55970</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>55974</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>55976</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>55978</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>56160</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>55980</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>55982</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>56038</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>56998</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12345678</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4" display="SC-QA01@YOPMAIL.COM"/>
+    <hyperlink ref="C12" r:id="rId5"/>
+    <hyperlink ref="C13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="C15" r:id="rId8"/>
+    <hyperlink ref="C16" r:id="rId9" display="sc-qa010101@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="460" windowWidth="27160" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Internal ID</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>1234567890</t>
   </si>
 </sst>
 </file>
@@ -240,9 +246,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,7 +530,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,8 +585,8 @@
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3">
-        <v>12345678</v>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -629,8 +635,8 @@
       <c r="C7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
-        <v>12345678</v>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -643,8 +649,8 @@
       <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8">
-        <v>12345678</v>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -657,15 +663,15 @@
       <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>12345678</v>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5"/>
@@ -674,7 +680,7 @@
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -688,8 +694,8 @@
       <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <v>12345678</v>
+      <c r="D12" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -702,10 +708,10 @@
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13">
-        <v>1234567890</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -719,10 +725,10 @@
       <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
-        <v>12345678</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -736,10 +742,10 @@
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15">
-        <v>1234567890</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -753,10 +759,10 @@
       <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7">
-        <v>12345678</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
     </row>

--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Internal ID</t>
   </si>
@@ -165,6 +165,42 @@
   </si>
   <si>
     <t>1234567890</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Email place holder</t>
+  </si>
+  <si>
+    <t>Password place holder</t>
+  </si>
+  <si>
+    <t>Admin Console</t>
+  </si>
+  <si>
+    <t>Sign in to your account</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Stay signed in</t>
+  </si>
+  <si>
+    <t>Sign in button</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>SIGN IN</t>
+  </si>
+  <si>
+    <t>Forgot password?</t>
   </si>
 </sst>
 </file>
@@ -238,11 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -527,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,9 +575,16 @@
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="64.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,208 +603,245 @@
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E5">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>44</v>
       </c>
     </row>

--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -131,9 +131,6 @@
     <t>55982</t>
   </si>
   <si>
-    <t>sc-qa01@yopmail.com</t>
-  </si>
-  <si>
     <t>112345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678902345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
     <t>Number of characters allowed</t>
   </si>
   <si>
-    <t>SC-QA01@YOPMAIL.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   SC-QA01@YOPMAIL.COM</t>
-  </si>
-  <si>
     <t>sc-qa010101@yopmail.com</t>
   </si>
   <si>
@@ -201,13 +192,22 @@
   </si>
   <si>
     <t>Forgot password?</t>
+  </si>
+  <si>
+    <t>sc_qa_auto01_signin@yopmail.com</t>
+  </si>
+  <si>
+    <t>SC_QA_AUTO01_SIGNIN@YoPmAiL.cOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SC_QA_AUTO01_SIGNIN@YoPmAiL.cOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +220,7 @@
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="13.2"/>
@@ -246,6 +247,14 @@
       <color rgb="FF222222"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,9 +279,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -285,7 +295,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -564,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,31 +609,31 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -633,25 +644,25 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -662,10 +673,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -684,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>254</v>
@@ -698,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5">
         <v>40</v>
@@ -712,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -726,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -740,10 +751,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -771,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -785,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -802,13 +813,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -819,13 +830,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -836,26 +847,24 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4" display="SC-QA01@YOPMAIL.COM"/>
-    <hyperlink ref="C12" r:id="rId5"/>
-    <hyperlink ref="C13" r:id="rId6"/>
-    <hyperlink ref="C14" r:id="rId7"/>
-    <hyperlink ref="C15" r:id="rId8"/>
-    <hyperlink ref="C16" r:id="rId9" display="sc-qa010101@yopmail.com"/>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3" display="sc-qa010101@yopmail.com"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5" display="SC_QA_AUTO01_SIGNIN@YoPmAiL.cOM"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/service_cube_automation_testing/DataSet/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Internal ID</t>
   </si>
@@ -56,9 +51,6 @@
     <t>Sign in with Email has "space" in first and end</t>
   </si>
   <si>
-    <t>Sign in with new password after reset password</t>
-  </si>
-  <si>
     <t>Sign in with old password after reset password</t>
   </si>
   <si>
@@ -92,9 +84,6 @@
     <t>55914</t>
   </si>
   <si>
-    <t>55916</t>
-  </si>
-  <si>
     <t>56166</t>
   </si>
   <si>
@@ -110,9 +99,6 @@
     <t>55940</t>
   </si>
   <si>
-    <t>55942</t>
-  </si>
-  <si>
     <t>57279</t>
   </si>
   <si>
@@ -122,9 +108,6 @@
     <t>55970</t>
   </si>
   <si>
-    <t>55974</t>
-  </si>
-  <si>
     <t>55976</t>
   </si>
   <si>
@@ -201,13 +184,25 @@
   </si>
   <si>
     <t xml:space="preserve">    SC_QA_AUTO01_SIGNIN@YoPmAiL.cOM</t>
+  </si>
+  <si>
+    <t>58805</t>
+  </si>
+  <si>
+    <t>58809</t>
+  </si>
+  <si>
+    <t>servicecuberp01@yopmail.com</t>
+  </si>
+  <si>
+    <t>FS@123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,7 +560,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,29 +568,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="64.1640625" customWidth="1"/>
+    <col min="6" max="6" width="64.125" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,268 +598,270 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" ht="18">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="18">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3" display="sc-qa010101@yopmail.com"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="C15" r:id="rId3" display="sc-qa010101@yopmail.com"/>
     <hyperlink ref="C8" r:id="rId4"/>
     <hyperlink ref="C9" r:id="rId5" display="SC_QA_AUTO01_SIGNIN@YoPmAiL.cOM"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSet/SignIn.xlsx
+++ b/DataSet/SignIn.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/service_cube_automation_testing/DataSet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -153,9 +161,6 @@
     <t>Password place holder</t>
   </si>
   <si>
-    <t>Admin Console</t>
-  </si>
-  <si>
     <t>Sign in to your account</t>
   </si>
   <si>
@@ -196,13 +201,16 @@
   </si>
   <si>
     <t>FS@123456</t>
+  </si>
+  <si>
+    <t>Admin console</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -560,7 +568,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,27 +578,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="64.125" customWidth="1"/>
+    <col min="6" max="6" width="64.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,16 +630,16 @@
         <v>43</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18">
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -639,28 +647,28 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18">
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -668,21 +676,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -696,7 +704,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -710,7 +718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -718,13 +726,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -732,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -746,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -760,16 +768,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -777,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -791,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>39</v>
@@ -800,9 +808,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -817,7 +825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -834,7 +842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
